--- a/medicine/Enfance/Linda_Wilscam/Linda_Wilscam.xlsx
+++ b/medicine/Enfance/Linda_Wilscam/Linda_Wilscam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linda Wilscam, née en 1949, est une autrice et scénariste québécois. Elle a aussi été actrice.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille de Maurice Wilscam et de Gabrielle Arsenault, elle obtient un diplôme du Conservatoire d'art dramatique de Montréal en 1971. Elle crée dans un théâtre d'été le personnage de Picotine. De 1972 à 1976, elle joue dans la série jeunesse Picotine où elle interprète le rôle titre et signe quelques scénarios. Elle a aussi écrit des scénarios pour la série jeunesse Iniminimagimo (1987-1990).
 Elle épouse en 1988 l'avocat François Terroux.
